--- a/biology/Médecine/Médecin_militaire/Médecin_militaire.xlsx
+++ b/biology/Médecine/Médecin_militaire/Médecin_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_militaire</t>
+          <t>Médecin_militaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un médecin militaire, chirurgien militaire ou médecin de combat est un médecin spécialisé dans la médecine militaire. Il peut aussi s'agir d'un médecin de marine exerçant son activité dans la marine de guerre. 
 Il travaille au sein d'une hiérarchie stricte et descendante, et éventuellement en situation de danger lors de conflits armés. Il peut, selon les cas, travailler dans un hôpital de campagne ou dans un hôpital militaire.
 Sur le terrain, le médecin militaire peut cumuler d'autres fonctions, comme le fait d'être interprète militaire. 
 Il fait aussi le suivi de statistiques à faire remonter à sa hiérarchie. Par exemple, depuis la première Guerre mondiale, les médecins militaires ont constaté des intoxications d'instructeurs de stands de tir liées aux fumées de tir.
-Le terme toubib désigne un médecin dans le registre populaire et familier ; il provient de l'argot militaire et est issu de l'arabe طبيب tabīb, « médecin »[1].
+Le terme toubib désigne un médecin dans le registre populaire et familier ; il provient de l'argot militaire et est issu de l'arabe طبيب tabīb, « médecin ».
 La profession n'est pas limitée aux hommes. Le métier est également ouvert aux femmes.
 </t>
         </is>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_militaire</t>
+          <t>Médecin_militaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,16 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecins militaires durant l'Antiquité grecque
-Déjà en Grèce Antique, quelques femmes médecins militaires sont célébrées, comme à Épire et à Thessalonique.
-Médecins militaires durant l'Antiquité romaine
-On sait peu de chose sur la médecine militaire sous la République. Les auteurs qui ont décrit l'appareil militaire avant Auguste, comme Tite-Live, expliquent que les blessés étaient cantonnés dans les villages aux alentours des zones de conflit. Il devait cependant exister des médecins civils au service de l'armée. Auguste en professionnalisant l'armée, y joint des médecins, les aerarium. Comme tous les militaires, ils doivent s'engager. Leur période d'engagement est de 16 ans au sein des valetudinaria l'équivalent militaire des aesculapia. Les médecins militaires romains sont bien formés, contrairement à certains homologues civils[2].
-Médecines militaires au cours de l'Histoire de France
-			État Major Général des armées du Roi en 1786 : Médecin Inspecteur et Chirurgien Inspecteur.
-Homonymie
-Officier de santé est un terme qui désignait en France à partir du 10 mars 1803, une personne qui exerçait la profession médicale sans le titre de docteur en médecine. L’officiat de santé fut aboli en 1892. Ce titre désignait aussi les médecins militaires en tant qu'officiers de service de santé selon un sens qui est progressivement sorti de l'usage et qui est source d'une certaine confusion.
-Époque contemporaine
-			Personnels médicaux militaires traitant des blessés lors de la Première Guerre mondiale, près d'Ypres en Belgique en 1917. Le soldat à gauche est atteint du syndrome fréquent d'obusite.
+          <t>Médecins militaires durant l'Antiquité grecque</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà en Grèce Antique, quelques femmes médecins militaires sont célébrées, comme à Épire et à Thessalonique.
 </t>
         </is>
       </c>
@@ -538,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_militaire</t>
+          <t>Médecin_militaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,23 +562,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>De nos jours</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans l'armée française
-Dans l'armée française, les médecins militaires sont des officiers soumis au statut général des militaires français et au décret no 2008-933 du 12 septembre 2008 portant statut particulier des praticiens des armées. Ils suivent un cursus médico-militaire au sein de l'École de Santé des Armées, en plus de la formation dispensée par la faculté de médecine civile qui délivre le diplôme d'État de docteur en médecine.
-Ils sont soumis à des règles de déontologie propres aux praticiens des armées (décret no 2008-967 du 16 septembre 2008). Ils exercent au sein du Service de santé des armées (SSA).
-Dans l'armée allemande
-Le service de santé de l'armée allemande comprend 19 850 personnes en 2020 (19 680 en 2012, 19 508 en 2014) dans le Zentraler Sanitätsdienst (ou service médical central).
-			Personnel médical de la Bundeswehr.
-Dans l'armée américaine
-Les médecins militaires dans les Forces armées des États-Unis ont droit à des badges spécifiques  qui sont les suivants :
-			Combat Medical Badge.
-			Expert Field Medical Badge.
-Dans l'armée russe
-En début d'année 2022, les forces armées de la fédération de Russie disposent de 23 000 médecins militaires[3].
+          <t>Médecins militaires durant l'Antiquité romaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On sait peu de chose sur la médecine militaire sous la République. Les auteurs qui ont décrit l'appareil militaire avant Auguste, comme Tite-Live, expliquent que les blessés étaient cantonnés dans les villages aux alentours des zones de conflit. Il devait cependant exister des médecins civils au service de l'armée. Auguste en professionnalisant l'armée, y joint des médecins, les aerarium. Comme tous les militaires, ils doivent s'engager. Leur période d'engagement est de 16 ans au sein des valetudinaria l'équivalent militaire des aesculapia. Les médecins militaires romains sont bien formés, contrairement à certains homologues civils.
 </t>
         </is>
       </c>
@@ -580,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_militaire</t>
+          <t>Médecin_militaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,10 +599,281 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecines militaires au cours de l'Histoire de France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			État Major Général des armées du Roi en 1786 : Médecin Inspecteur et Chirurgien Inspecteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médecines militaires au cours de l'Histoire de France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Homonymie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Officier de santé est un terme qui désignait en France à partir du 10 mars 1803, une personne qui exerçait la profession médicale sans le titre de docteur en médecine. L’officiat de santé fut aboli en 1892. Ce titre désignait aussi les médecins militaires en tant qu'officiers de service de santé selon un sens qui est progressivement sorti de l'usage et qui est source d'une certaine confusion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Époque contemporaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Personnels médicaux militaires traitant des blessés lors de la Première Guerre mondiale, près d'Ypres en Belgique en 1917. Le soldat à gauche est atteint du syndrome fréquent d'obusite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>De nos jours</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans l'armée française</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'armée française, les médecins militaires sont des officiers soumis au statut général des militaires français et au décret no 2008-933 du 12 septembre 2008 portant statut particulier des praticiens des armées. Ils suivent un cursus médico-militaire au sein de l'École de Santé des Armées, en plus de la formation dispensée par la faculté de médecine civile qui délivre le diplôme d'État de docteur en médecine.
+Ils sont soumis à des règles de déontologie propres aux praticiens des armées (décret no 2008-967 du 16 septembre 2008). Ils exercent au sein du Service de santé des armées (SSA).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>De nos jours</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans l'armée allemande</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service de santé de l'armée allemande comprend 19 850 personnes en 2020 (19 680 en 2012, 19 508 en 2014) dans le Zentraler Sanitätsdienst (ou service médical central).
+			Personnel médical de la Bundeswehr.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>De nos jours</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans l'armée américaine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les médecins militaires dans les Forces armées des États-Unis ont droit à des badges spécifiques  qui sont les suivants :
+			Combat Medical Badge.
+			Expert Field Medical Badge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>De nos jours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dans l'armée russe</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En début d'année 2022, les forces armées de la fédération de Russie disposent de 23 000 médecins militaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Liste de personnalités ayant exercé les fonctions de médecin militaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Liste de personnalités classées par ordre alphabétique des noms de famille:
 Alfred William Alcock (1859-1933), naturaliste britannique
@@ -666,40 +941,80 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9decin_militaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dans la peinture
-Portrait d'un médecin militaire est un tableau peint par Albert Gleizes en 1914 à Toul. Cette huile sur toile cubiste représente Mayer Simon Lambert, un médecin militaire de la Première Guerre mondiale. 
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans la peinture</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portrait d'un médecin militaire est un tableau peint par Albert Gleizes en 1914 à Toul. Cette huile sur toile cubiste représente Mayer Simon Lambert, un médecin militaire de la Première Guerre mondiale. 
 			Ambroise Paré utilisant la ligature lors d'une amputation sur le champ de bataille lors du siège de Damvillers, en 1552. Peinture à l'huile de Board.
 			Dominique-Jean Larrey effectuant une amputation de Rebsomen à la bataille de Hanau, les 30 et 31 octobre 1813.
 			Portrait de Germain Pichault de La Martinière par Latinville.
 			Deux médecins militaires français soignant des blessés de toute origine après la bataille d'Inkerman, le 5 novembre 1854.
-Dans la fiction
-Médecins de combat (Combat Hospital), série télévisée canadienne en treize épisodes de 42 minutes, créée par Jinder Oujla-Chalmers, Daniel Petrie Jr. et Douglas Steinberg, et diffusée en simultanée entre le 21 juin et le 6 septembre 2011 sur le réseau Global au Canada et sur le réseau ABC aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Médecin_militaire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_militaire</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dans la fiction</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Médecins de combat (Combat Hospital), série télévisée canadienne en treize épisodes de 42 minutes, créée par Jinder Oujla-Chalmers, Daniel Petrie Jr. et Douglas Steinberg, et diffusée en simultanée entre le 21 juin et le 6 septembre 2011 sur le réseau Global au Canada et sur le réseau ABC aux États-Unis.
 MASH, une comédie satirique américaine réalisée par Robert Altman et sortie en 1970.
 Personnages de fiction
 Keith Smith, un médecin militaire dans le jeu vidéo Operation WinBack
